--- a/ajout-RC/ig/ValueSet-MeltingPotVS.xlsx
+++ b/ajout-RC/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T15:13:39+00:00</t>
+    <t>2025-12-02T14:16:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/ValueSet-MeltingPotVS.xlsx
+++ b/ajout-RC/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:16:53+00:00</t>
+    <t>2025-12-16T07:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/ValueSet-MeltingPotVS.xlsx
+++ b/ajout-RC/ig/ValueSet-MeltingPotVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T07:50:40+00:00</t>
+    <t>2026-01-02T15:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
